--- a/lca estimations/selects2019_2024_13clusters_results.xlsx
+++ b/lca estimations/selects2019_2024_13clusters_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A09F8-8D05-4B2C-97AB-BC68481AD952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3756A59-13A8-4E42-A18F-A3534CACA44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{A9DF3E08-FC6C-4CD7-BB3E-346A7FDFC2E2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="390">
   <si>
     <t>File name:</t>
   </si>
@@ -1184,6 +1184,21 @@
   </si>
   <si>
     <t>Conservative leftists</t>
+  </si>
+  <si>
+    <t>Productivist neoliberals</t>
+  </si>
+  <si>
+    <t>Productivist neoliberals II</t>
+  </si>
+  <si>
+    <t>Dependent variable: Cluster membership</t>
+  </si>
+  <si>
+    <t>Independent variables: probability to vote for a party (1-10 scale)</t>
+  </si>
+  <si>
+    <t>Data source: Selects 2019 panel study</t>
   </si>
 </sst>
 </file>
@@ -4080,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F057295-459B-4A13-983A-0156BA4540D7}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4764,6 +4779,11 @@
         <v>0.73419999999999996</v>
       </c>
     </row>
+    <row r="16" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:R1"/>
@@ -4779,7 +4799,7 @@
   <dimension ref="A1:O663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4826,6 +4846,12 @@
       <c r="L1" t="s">
         <v>384</v>
       </c>
+      <c r="M1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -33370,7 +33396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BB033A-0187-41ED-9E7F-B95FD7573868}">
   <dimension ref="A1:N243"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -39026,13 +39052,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B229:N229"/>
-    <mergeCell ref="B181:N181"/>
-    <mergeCell ref="A196:N196"/>
-    <mergeCell ref="B197:N197"/>
-    <mergeCell ref="A212:N212"/>
-    <mergeCell ref="B213:N213"/>
-    <mergeCell ref="A228:N228"/>
+    <mergeCell ref="A84:N84"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="B53:N53"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="B69:N69"/>
     <mergeCell ref="A180:N180"/>
     <mergeCell ref="B85:N85"/>
     <mergeCell ref="A100:N100"/>
@@ -39045,18 +39076,13 @@
     <mergeCell ref="B149:N149"/>
     <mergeCell ref="A164:N164"/>
     <mergeCell ref="B165:N165"/>
-    <mergeCell ref="A84:N84"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="B53:N53"/>
-    <mergeCell ref="A68:N68"/>
-    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B229:N229"/>
+    <mergeCell ref="B181:N181"/>
+    <mergeCell ref="A196:N196"/>
+    <mergeCell ref="B197:N197"/>
+    <mergeCell ref="A212:N212"/>
+    <mergeCell ref="B213:N213"/>
+    <mergeCell ref="A228:N228"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39067,13 +39093,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D6BBF-7922-4450-90C5-686FF4933BF9}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="20.26953125" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>367</v>
       </c>
@@ -39096,8 +39126,14 @@
         <v>376</v>
       </c>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -39121,7 +39157,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>368</v>
       </c>
@@ -39145,7 +39181,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -39169,7 +39205,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>368</v>
       </c>
@@ -39193,7 +39229,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -39217,7 +39253,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>368</v>
       </c>
@@ -39241,7 +39277,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -39265,7 +39301,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>368</v>
       </c>
@@ -39289,7 +39325,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -39313,7 +39349,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -39337,7 +39373,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -39361,7 +39397,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>368</v>
       </c>
@@ -39385,7 +39421,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -39409,7 +39445,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>368</v>
       </c>
@@ -39433,7 +39469,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
